--- a/predict/case4.xlsx
+++ b/predict/case4.xlsx
@@ -355,1245 +355,1245 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.06699777169506041</v>
+        <v>-0.17</v>
       </c>
       <c r="B1" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1504113974264354</v>
+        <v>-0.06</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1571162599646377</v>
+        <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2902126069714766</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5314356046217271</v>
+        <v>0.03</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5485526443174505</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5984096316772475</v>
+        <v>-0.3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1667140962407453</v>
+        <v>-0.02</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3208142198724165</v>
+        <v>-0.23</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005275667842395484</v>
+        <v>0.09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2405031501465737</v>
+        <v>0.05</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02032479399527836</v>
+        <v>0.19</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7145235674416507</v>
+        <v>-0.28</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3882682816051601</v>
+        <v>-0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3035693923578046</v>
+        <v>0.13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3399215632519491</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2797988492081894</v>
+        <v>-0.41</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1017751827351839</v>
+        <v>-0.09</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.02721518356589483</v>
+        <v>-0.2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05912770246709848</v>
+        <v>0.03</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5692307692307694</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5875136165740259</v>
+        <v>-0.35</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1737337149522271</v>
+        <v>-0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4015034822124325</v>
+        <v>0.14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6470588235294118</v>
+        <v>-0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2061285823168463</v>
+        <v>0.13</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4342904397495077</v>
+        <v>-0.21</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9117647058823529</v>
+        <v>-0.91</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.109893421291566</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.07924725261001173</v>
+        <v>0.14</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.09000689902347098</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4666235584738655</v>
+        <v>-0.3</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2747126987109864</v>
+        <v>-0.06</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1900959849486172</v>
+        <v>-0.03</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06612313615162385</v>
+        <v>0.25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1135227103047401</v>
+        <v>0.22</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.003923102610748179</v>
+        <v>0.14</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.04450241027790644</v>
+        <v>0.03</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02390986338173866</v>
+        <v>0.29</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1254150013886227</v>
+        <v>-0.13</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02449679559080715</v>
+        <v>0.03</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3783721420500309</v>
+        <v>-0.09</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4107277615652153</v>
+        <v>-0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.06278325318707437</v>
+        <v>0.18</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03788031620370853</v>
+        <v>0.09</v>
       </c>
       <c r="D21" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.1296659571548577</v>
+        <v>0.05</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07911929037703708</v>
+        <v>0.19</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.09997167272808119</v>
+        <v>-0.02</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0007890500710386397</v>
+        <v>-0.08</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.1752865073638573</v>
+        <v>-0.06</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3235294117647061</v>
+        <v>-0.32</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08274569030433249</v>
+        <v>0.12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1255728719554226</v>
+        <v>0.04</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5524442853637167</v>
+        <v>0.2</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5784956112902792</v>
+        <v>0.19</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4575565573656211</v>
+        <v>0.12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.1585596956007222</v>
+        <v>0.21</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2729060692335784</v>
+        <v>0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.0746330948242874</v>
+        <v>0.01</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.006016726125822762</v>
+        <v>0.17</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3465984615261349</v>
+        <v>0.32</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4780552767909297</v>
+        <v>0.26</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.1685845284080666</v>
+        <v>-0.27</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001872453933768066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3440780278452823</v>
+        <v>0.17</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06595407367259348</v>
+        <v>0.09</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1999155302436054</v>
+        <v>0.02</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3133346945007643</v>
+        <v>0.03</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4738168532434502</v>
+        <v>-0.25</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3410363828250129</v>
+        <v>0.02</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.3349294531076169</v>
+        <v>-0.01</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01499002156937428</v>
+        <v>0.1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.3729713977538002</v>
+        <v>-0.22</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07803603437087908</v>
+        <v>-0.11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.5720733570029103</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7941176470588236</v>
+        <v>-0.79</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.06734012416313767</v>
+        <v>0.2</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.2050329816320725</v>
+        <v>-0.31</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0332367524461285</v>
+        <v>-0.18</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2559529576055369</v>
+        <v>0.21</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2128646925337248</v>
+        <v>0.2</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.4987279721422401</v>
+        <v>-0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.35596935500253</v>
+        <v>-0.15</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1713684248120134</v>
+        <v>-0.25</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2671758177465696</v>
+        <v>0.03</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.2975019577592749</v>
+        <v>-0.05</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1709532992159377</v>
+        <v>0.11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.3512911857851621</v>
+        <v>-0.29</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2421101615929823</v>
+        <v>-0.02</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.02881752777660659</v>
+        <v>-0.02</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04299108138695879</v>
+        <v>-0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.02298806040231768</v>
+        <v>-0.19</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05646193040122911</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.3641683367085963</v>
+        <v>-0.31</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03570173688396545</v>
+        <v>-0.06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.2391227455482116</v>
+        <v>-0.29</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.06209531280597552</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.4074148088320334</v>
+        <v>-0.26</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1950799494949175</v>
+        <v>-0.04</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3107551589553027</v>
+        <v>0.21</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2475119905093552</v>
+        <v>0.13</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.3830387112270203</v>
+        <v>0.03</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2487413177813411</v>
+        <v>0.03</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.3392800029587139</v>
+        <v>-0.03</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1502208131881245</v>
+        <v>-0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4191574395301815</v>
+        <v>0.03</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6436713098330143</v>
+        <v>0.34</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.0409641121198713</v>
+        <v>0.22</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1259910529886449</v>
+        <v>0.18</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.1595464391647034</v>
+        <v>-0.04</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1119629406425423</v>
+        <v>0.14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1385495112433403</v>
+        <v>-0.21</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05294152728430796</v>
+        <v>0.11</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1763374022464036</v>
+        <v>0.11</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.06335691509429203</v>
+        <v>-0.05</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.6923076923076923</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3369732651244696</v>
+        <v>0.13</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03038818808175898</v>
+        <v>0.24</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.55317172988547</v>
+        <v>-0.4</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3346099857421083</v>
+        <v>-0.08</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1443411396485211</v>
+        <v>-0.01</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3462306301526544</v>
+        <v>-0.05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.2680941650875964</v>
+        <v>0.22</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.209672768512163</v>
+        <v>0.15</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1482019946224512</v>
+        <v>-0.03</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.205899019485535</v>
+        <v>-0.04</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.1972958565863444</v>
+        <v>-0.28</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2380844208586646</v>
+        <v>0.04</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.3269279262308641</v>
+        <v>0.16</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.09982251763074196</v>
+        <v>0.01</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.3063056847251157</v>
+        <v>-0.25</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.231960379569251</v>
+        <v>-0.12</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4518647089373592</v>
+        <v>0.09</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5495021561020691</v>
+        <v>0.17</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7230769230769232</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.3624120403834236</v>
+        <v>-0.31</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1960251331293103</v>
+        <v>-0.13</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2870575534694259</v>
+        <v>0.1</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08955136863500407</v>
+        <v>0.13</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.35246992572453</v>
+        <v>0.1</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1093609862765378</v>
+        <v>0.03</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5993100805245685</v>
+        <v>0.36</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7941176470588232</v>
+        <v>0.79</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2243431217819354</v>
+        <v>0.18</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.07128060044003162</v>
+        <v>-0.19</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.08743266785414811</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4337104952038474</v>
+        <v>0.18</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08979144999564476</v>
+        <v>0.22</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7236232285280809</v>
+        <v>0.4</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7647058823529409</v>
+        <v>0.76</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2093291503961291</v>
+        <v>-0.14</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.111251238167302</v>
+        <v>0.28</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.0114751082247077</v>
+        <v>0.22</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.06927600035555051</v>
+        <v>0.11</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3235294117647061</v>
+        <v>-0.32</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1943053672328686</v>
+        <v>0.09</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.1269366253332195</v>
+        <v>0.14</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01683097897832703</v>
+        <v>0.09</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3368192371240876</v>
+        <v>-0.32</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1764705882352942</v>
+        <v>-0.18</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1546516639856814</v>
+        <v>-0.13</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.2888656479777064</v>
+        <v>-0.16</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1797310045696174</v>
+        <v>0.02</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.08370508819000841</v>
+        <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2052127638024151</v>
+        <v>0.17</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.2720964220936509</v>
+        <v>-0.34</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1017852361670984</v>
+        <v>-0.04</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.3780624312173656</v>
+        <v>-0.28</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.2347962189018182</v>
+        <v>-0.06</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.248711694149912</v>
+        <v>0.21</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1028155586113262</v>
+        <v>0.31</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.6554617025834596</v>
+        <v>-0.34</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7058823529411764</v>
+        <v>-0.71</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.2894140555029092</v>
+        <v>-0.09</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4337534207108941</v>
+        <v>0.08</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C82" t="n">
-        <v>0.51226093698179</v>
+        <v>0.09</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.366959115905848</v>
+        <v>0.09</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1610897798489605</v>
+        <v>0.11</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.1663202621447616</v>
+        <v>-0.24</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08520346356974834</v>
+        <v>0.01</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.1460308081723082</v>
+        <v>0.14</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.08723084596098069</v>
+        <v>0.14</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.0009294897442532479</v>
+        <v>0.03</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2322629022371996</v>
+        <v>0.19</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.1504156630194994</v>
+        <v>-0.13</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.2041198304103235</v>
+        <v>-0.03</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1076923076923078</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.1018951167304739</v>
+        <v>-0.08</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1673322320082202</v>
+        <v>-0.13</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2359767393233217</v>
+        <v>0.13</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1808722995190455</v>
+        <v>0.11</v>
       </c>
       <c r="D89" t="n">
         <v>-0.2</v>
@@ -1601,839 +1601,839 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.2114175626937182</v>
+        <v>-0.45</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03106861410893964</v>
+        <v>-0.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.1883059233816881</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3475882352941178</v>
+        <v>-0.35</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1319265008097469</v>
+        <v>0.09</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2979076923076924</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1253007823782309</v>
+        <v>0.03</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2693350958391574</v>
+        <v>0.1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7846153846153849</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.5447704842695008</v>
+        <v>0.36</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4705882352941173</v>
+        <v>0.47</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1792584765840464</v>
+        <v>0.2</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.1709998904883729</v>
+        <v>0.05</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0134109546867544</v>
+        <v>0.17</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4947508070984289</v>
+        <v>0.2</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6948927046180918</v>
+        <v>0.23</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.02375459804066074</v>
+        <v>-0.15</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1754351518586455</v>
+        <v>-0.01</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6005713674340322</v>
+        <v>0.46</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3031422064940306</v>
+        <v>0.25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3737123860215626</v>
+        <v>0.01</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1609773054512851</v>
+        <v>0.04</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1555987155676394</v>
+        <v>-0.01</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1899602343687268</v>
+        <v>-0.02</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4153846153846155</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.1546536450188744</v>
+        <v>-0.36</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02422663096641082</v>
+        <v>-0.03</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.4537983832211151</v>
+        <v>-0.15</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.7058823529411764</v>
+        <v>-0.71</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2069709193838415</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2958332874735882</v>
+        <v>-0.18</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.21</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2700757912191639</v>
+        <v>0.1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.1612983374641707</v>
+        <v>-0.25</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1764705882352939</v>
+        <v>0.18</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.003371214598988308</v>
+        <v>-0.04</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.4268340897447142</v>
+        <v>-0.46</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.25506510604357</v>
+        <v>-0.14</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.1381688764898907</v>
+        <v>-0.1</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C105" t="n">
-        <v>0.217151758707042</v>
+        <v>0.13</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.4167470432526929</v>
+        <v>-0.19</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.2915019554344548</v>
+        <v>-0.08</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.5717591362534121</v>
+        <v>-0.42</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.8529411764705882</v>
+        <v>-0.85</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.30114847406479</v>
+        <v>-0.09</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2510235926407384</v>
+        <v>-0.04</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2863799438967783</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2706450306578293</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2712619394903731</v>
+        <v>0.09</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.3256333928321772</v>
+        <v>-0.34</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01561342267812955</v>
+        <v>-0.02</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.0423360208594791</v>
+        <v>0.19</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.2380289246723026</v>
+        <v>0.12</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3375979548364879</v>
+        <v>0.31</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1398045313540171</v>
+        <v>0.11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5662523940703447</v>
+        <v>-0.36</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2053017869153133</v>
+        <v>-0.04</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.2893219317519219</v>
+        <v>-0.15</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.411764705882353</v>
+        <v>-0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.07308038790550192</v>
+        <v>-0.04</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.001214596962117204</v>
+        <v>-0.17</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2068976651878285</v>
+        <v>0.03</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.1720974434103403</v>
+        <v>-0.31</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.16559962290837</v>
+        <v>-0.2</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.6615384615384615</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1109749084038808</v>
+        <v>0.29</v>
       </c>
       <c r="B117" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209944270420039</v>
+        <v>0.24</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.19294256044362</v>
+        <v>0.06</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C118" t="n">
-        <v>0.107252636433366</v>
+        <v>0.19</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5692307692307694</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.4888348952627294</v>
+        <v>-0.01</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3508106367560297</v>
+        <v>0.04</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3996826141525106</v>
+        <v>0.08</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2325816705597732</v>
+        <v>0.13</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.3193805297747055</v>
+        <v>-0.44</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.676470588235294</v>
+        <v>-0.68</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.0747196171398658</v>
+        <v>-0.12</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.476923076923077</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.02413559555229564</v>
+        <v>-0.37</v>
       </c>
       <c r="B122" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.05525621127870346</v>
+        <v>-0.09</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1554388933724998</v>
+        <v>0.23</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05882352941176472</v>
+        <v>0.06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4513557630022498</v>
+        <v>0.23</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.3240476840932444</v>
+        <v>-0.17</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.02351334164759094</v>
+        <v>0.04</v>
       </c>
       <c r="D124" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.03092843603033649</v>
+        <v>-0.14</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.05347058823529416</v>
+        <v>-0.05</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2029090088301727</v>
+        <v>0.04</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2699384615384615</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.4010236961735075</v>
+        <v>-0.11</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.05768350113467185</v>
+        <v>0.06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.3563521638193733</v>
+        <v>-0.06</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.3428938642891732</v>
+        <v>-0.17</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4636829090593021</v>
+        <v>0.01</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1857879392845417</v>
+        <v>0.14</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2767059395331694</v>
+        <v>0.03</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8529411764705881</v>
+        <v>0.85</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2409337341655165</v>
+        <v>0.06</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.3237609480495324</v>
+        <v>0.04</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6176470588235292</v>
+        <v>0.62</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1955396862808177</v>
+        <v>0.09</v>
       </c>
       <c r="D130" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1816746060067579</v>
+        <v>0.34</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3607583544999398</v>
+        <v>0.2</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.4521928908866143</v>
+        <v>-0.1</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1491785567455781</v>
+        <v>0.08</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.1615487785531816</v>
+        <v>-0.34</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09747496907072112</v>
+        <v>-0.1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4216215033340217</v>
+        <v>0.23</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C134" t="n">
-        <v>0.06317331523533959</v>
+        <v>-0.04</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.5692307692307692</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.3144787506677761</v>
+        <v>-0.05</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.01494235377164748</v>
+        <v>0.16</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3631299150216095</v>
+        <v>-0.05</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3812128721137574</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.1884515257539316</v>
+        <v>0.09</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.06692426659652589</v>
+        <v>0.02</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.4341357661436084</v>
+        <v>-0.12</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.2684502296043684</v>
+        <v>-0</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.5076923076923077</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.5282592148159059</v>
+        <v>0.38</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2961570848481299</v>
+        <v>0.12</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.6597935118812009</v>
+        <v>-0.49</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.7647058823529412</v>
+        <v>-0.76</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1496137499577048</v>
+        <v>-0.03</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.2422032175861348</v>
+        <v>-0.32</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3091748912082016</v>
+        <v>0.03</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.0273762399023508</v>
+        <v>0.12</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1254545575250918</v>
+        <v>0.11</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.5989425575814008</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.32437529887862</v>
+        <v>0.1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9076923076923076</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.3543984625972242</v>
+        <v>-0.18</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.03144781914365018</v>
+        <v>0.06</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2203703733601153</v>
+        <v>0.2</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3823529411764703</v>
+        <v>0.38</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2332144587809571</v>
+        <v>0.2</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8153846153846156</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.743531812329265</v>
+        <v>-0.29</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2977092607712061</v>
+        <v>-0</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.2716069091189713</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1383844490534228</v>
+        <v>0.14</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.09503415586735117</v>
+        <v>-0.01</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1470588235294119</v>
+        <v>-0.15</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01825672893298653</v>
+        <v>0.05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1692307692307693</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2438353440205506</v>
+        <v>-0.05</v>
       </c>
       <c r="B149" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3575038217449814</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2441,419 +2441,419 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.09003977236490543</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03700621462535076</v>
+        <v>0.11</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.2923076923076924</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.211513340908044</v>
+        <v>0.15</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0543268493685401</v>
+        <v>0.15</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3230769230769233</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.2909118221021315</v>
+        <v>-0.45</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1277378967962898</v>
+        <v>-0.06</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.1686150509705308</v>
+        <v>-0.18</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2525930409942317</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.601788940292569</v>
+        <v>-0.15</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.2869782888914076</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.5384615384615384</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.4401016708314315</v>
+        <v>-0.17</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.35</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.2222770282142021</v>
+        <v>-0.02</v>
       </c>
       <c r="D155" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.6312592131862259</v>
+        <v>-0.34</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5294117647058824</v>
+        <v>-0.53</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.177234274735603</v>
+        <v>-0.03</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7056784930403365</v>
+        <v>0.44</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7647058823529409</v>
+        <v>0.76</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6072423956322238</v>
+        <v>0.44</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.4279083902528783</v>
+        <v>-0.19</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.2086264086305233</v>
+        <v>0.03</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1863799782917735</v>
+        <v>0.23</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1355527779000832</v>
+        <v>0.17</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.3980606598661219</v>
+        <v>-0.03</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3235294117647056</v>
+        <v>0.32</v>
       </c>
       <c r="C160" t="n">
-        <v>0.06741632599745678</v>
+        <v>-0.04</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.5586358172841627</v>
+        <v>-0.24</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.676470588235294</v>
+        <v>-0.68</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1000104144726701</v>
+        <v>0.09</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.3485251654176754</v>
+        <v>-0.12</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5882352941176471</v>
+        <v>-0.59</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.07368705868608977</v>
+        <v>-0.03</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2811571046606433</v>
+        <v>0.06</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4117647058823528</v>
+        <v>0.41</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3506344002238469</v>
+        <v>0.13</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.1685566983274168</v>
+        <v>-0.41</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.05772306183174842</v>
+        <v>-0.1</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2132103556597943</v>
+        <v>0.02</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6764705882352937</v>
+        <v>0.68</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.14586244037288</v>
+        <v>-0.04</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.02525052173608264</v>
+        <v>0.15</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001752477382297508</v>
+        <v>0.08</v>
       </c>
       <c r="D166" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2924929021309844</v>
+        <v>0.15</v>
       </c>
       <c r="B167" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3469488260739274</v>
+        <v>0.25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4461538461538461</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04964722351733827</v>
+        <v>0.01</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C168" t="n">
-        <v>0.08233527636027965</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.7039809596636627</v>
+        <v>-0.43</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.7352941176470589</v>
+        <v>-0.74</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.2124431033226765</v>
+        <v>-0.11</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3538461538461537</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.009495971870555037</v>
+        <v>-0.16</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2513441678025612</v>
+        <v>-0.03</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.3439408715203632</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.205417551934818</v>
+        <v>0.2</v>
       </c>
       <c r="D171" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.01988909468399927</v>
+        <v>-0.11</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1781015663956507</v>
+        <v>0.04</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4328024552324489</v>
+        <v>0.16</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4411764705882351</v>
+        <v>0.44</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4263213696135222</v>
+        <v>0.21</v>
       </c>
       <c r="D173" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.3050321205155963</v>
+        <v>-0.36</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C174" t="n">
-        <v>0.00313336362978462</v>
+        <v>-0.04</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.3538461538461537</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.0042480835457753</v>
+        <v>0.14</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1176470588235297</v>
+        <v>-0.12</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3229554675169415</v>
+        <v>0.28</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2615384615384617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.2111837354740755</v>
+        <v>0.16</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.2413766123652645</v>
+        <v>0.11</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.1359853755528525</v>
+        <v>-0.01</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2711893884757478</v>
+        <v>0.16</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.3691883330950124</v>
+        <v>0.05</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1520140916717705</v>
+        <v>0.18</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.01346389305488485</v>
+        <v>-0.26</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.1180472997958719</v>
+        <v>-0.06</v>
       </c>
       <c r="D179" t="n">
         <v>-0.2</v>
@@ -2861,632 +2861,632 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1574512919934695</v>
+        <v>0.11</v>
       </c>
       <c r="B180" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.1223487970574761</v>
+        <v>-0.08</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2923076923076924</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.1513976666929419</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1764705882352939</v>
+        <v>0.18</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.133639282260034</v>
+        <v>0.06</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.4848601139573051</v>
+        <v>-0.29</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.3013382718251871</v>
+        <v>-0.22</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.4461538461538461</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.1612109395839222</v>
+        <v>-0.05</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.04069769318084531</v>
+        <v>-0.05</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.01326761093163684</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2562935591905072</v>
+        <v>0.12</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.7364797529606201</v>
+        <v>-0.4</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-0.82</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.1782828342433044</v>
+        <v>-0.04</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.01416972386360812</v>
+        <v>-0.28</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C186" t="n">
-        <v>0.302148576083813</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6923076923076925</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1424472096738568</v>
+        <v>0.41</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3529411764705881</v>
+        <v>0.35</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.02331836588039898</v>
+        <v>0.28</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.4061639062146726</v>
+        <v>0.33</v>
       </c>
       <c r="B188" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1647662776666441</v>
+        <v>0.19</v>
       </c>
       <c r="D188" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.1744133081933742</v>
+        <v>-0.13</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.006871906333088366</v>
+        <v>0.06</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.2564693574352584</v>
+        <v>0.27</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.4705882352941178</v>
+        <v>-0.47</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3518391711927654</v>
+        <v>0.13</v>
       </c>
       <c r="D190" t="n">
-        <v>0.04615384615384621</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.5897205790226508</v>
+        <v>-0.22</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.6176470588235294</v>
+        <v>-0.62</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.1646818895463293</v>
+        <v>-0.03</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.3821351762603385</v>
+        <v>-0.19</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.09741235460823766</v>
+        <v>0.01</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.04615384615384599</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.03830943728985395</v>
+        <v>-0.2</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02941176470588203</v>
+        <v>0.03</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3960011619781488</v>
+        <v>0.11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.3269898325942052</v>
+        <v>0.18</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.4411764705882353</v>
+        <v>-0.44</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.04750467494233795</v>
+        <v>0.19</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.476923076923077</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.2456699888662107</v>
+        <v>0.15</v>
       </c>
       <c r="B195" t="n">
-        <v>0.529411764705882</v>
+        <v>0.53</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3116341027409253</v>
+        <v>0.23</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6615384615384619</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.06191192787575614</v>
+        <v>-0.11</v>
       </c>
       <c r="B196" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1855510801108272</v>
+        <v>0.03</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.0756588127762293</v>
+        <v>0.06</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.2058823529411766</v>
+        <v>-0.21</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.01470418517698795</v>
+        <v>0.06</v>
       </c>
       <c r="D197" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.224139162728405</v>
+        <v>-0.12</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C198" t="n">
-        <v>0.04650479633103772</v>
+        <v>0.01</v>
       </c>
       <c r="D198" t="n">
-        <v>0.01538461538461555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.1928266821758902</v>
+        <v>0.06</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C199" t="n">
-        <v>0.210831430890917</v>
+        <v>0.1</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.7538461538461538</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.5458607539015229</v>
+        <v>0.28</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.26</v>
       </c>
       <c r="C200" t="n">
-        <v>0.310575429505573</v>
+        <v>0.14</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.1813311128040195</v>
+        <v>-0.11</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.2129636722878944</v>
+        <v>-0.02</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.07261756074560913</v>
+        <v>0.3</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.2647058823529413</v>
+        <v>-0.26</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.02579405882639867</v>
+        <v>0.25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.5374554841215523</v>
+        <v>0.3</v>
       </c>
       <c r="B203" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C203" t="n">
-        <v>0.08223563346249613</v>
+        <v>0.08</v>
       </c>
       <c r="D203" t="n">
-        <v>0.476923076923077</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.4449879027132261</v>
+        <v>-0.49</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.02438745037476003</v>
+        <v>-0.09</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.07692307692307687</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.1964711820580814</v>
+        <v>-0</v>
       </c>
       <c r="B205" t="n">
-        <v>0.08823529411764697</v>
+        <v>0.09</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2792687909516336</v>
+        <v>0.16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.3670652582342814</v>
+        <v>0.23</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6470588235294115</v>
+        <v>0.65</v>
       </c>
       <c r="C206" t="n">
-        <v>0.3526678358844149</v>
+        <v>0.21</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.6543961132169597</v>
+        <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.71</v>
       </c>
       <c r="C207" t="n">
-        <v>0.5228173929443584</v>
+        <v>0.38</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.1815569705179153</v>
+        <v>-0.33</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2560599467194043</v>
+        <v>-0</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.5228242307073153</v>
+        <v>-0.33</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.2941176470588236</v>
+        <v>-0.29</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.1455201549693465</v>
+        <v>-0.09</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1076923076923078</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.414668269973559</v>
+        <v>-0.06</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7941176470588232</v>
+        <v>0.79</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4491836484346253</v>
+        <v>0.09</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.1074171084130801</v>
+        <v>-0.03</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.1269226076843845</v>
+        <v>0.02</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1692307692307693</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.247867156465544</v>
+        <v>0.16</v>
       </c>
       <c r="B212" t="n">
-        <v>0.2941176470588234</v>
+        <v>0.29</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2168823869446297</v>
+        <v>0.11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.2379848029027664</v>
+        <v>-0.26</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.2352941176470589</v>
+        <v>-0.24</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1226327781550869</v>
+        <v>0.04</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.4437457701849751</v>
+        <v>-0.15</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.09264320775548235</v>
+        <v>0.13</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.5453183984745974</v>
+        <v>0.15</v>
       </c>
       <c r="B215" t="n">
-        <v>0.588235294117647</v>
+        <v>0.59</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2991772825606103</v>
+        <v>0.04</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1269966744083436</v>
+        <v>0.24</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1125974809200519</v>
+        <v>-0.06</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.01538461538461533</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.2088893104638316</v>
+        <v>0.08</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.3823529411764706</v>
+        <v>-0.38</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.230975789108871</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.7230769230769231</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.3272224581338853</v>
+        <v>-0.22</v>
       </c>
       <c r="B218" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.24</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.245302548100724</v>
+        <v>-0.11</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.08123865671484057</v>
+        <v>0.2</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.08823529411764719</v>
+        <v>-0.09</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.1139808107300406</v>
+        <v>0.1</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.323076923076923</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.04624002556771253</v>
+        <v>0.16</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.02941176470588225</v>
+        <v>-0.03</v>
       </c>
       <c r="C220" t="n">
-        <v>0.03073459698311305</v>
+        <v>0.1</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1384615384615384</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.376123703716024</v>
+        <v>0.19</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.05882352941176494</v>
+        <v>-0.06</v>
       </c>
       <c r="C221" t="n">
-        <v>0.04130740841499098</v>
+        <v>0.09</v>
       </c>
       <c r="D221" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.478749711649865</v>
+        <v>0.27</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3823529411764703</v>
+        <v>0.38</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1688188909599516</v>
+        <v>0.1</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.3155452028093862</v>
+        <v>-0.43</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.5000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.2882313584956483</v>
+        <v>-0.13</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.2615384615384615</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.4963547195684698</v>
+        <v>-0.15</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-0.82</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.03956158452725183</v>
+        <v>0.03</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.4153846153846152</v>
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
